--- a/xls/square_un_4_tri3_2.xlsx
+++ b/xls/square_un_4_tri3_2.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -485,13 +485,13 @@
         <v>24</v>
       </c>
       <c r="I2">
-        <v>33.63015035594122</v>
+        <v>43.62919565349431</v>
       </c>
       <c r="J2">
-        <v>32.146292318423285</v>
+        <v>42.808687918033876</v>
       </c>
       <c r="K2">
-        <v>16.533276289215777</v>
+        <v>17.190704002296535</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>54</v>
       </c>
       <c r="I3">
-        <v>-0.27075683125876</v>
+        <v>0.7438168094508594</v>
       </c>
       <c r="J3">
-        <v>-0.0021591117796431226</v>
+        <v>0.5153661973288843</v>
       </c>
       <c r="K3">
-        <v>0.04330268542996957</v>
+        <v>0.42817392342700533</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -555,13 +555,13 @@
         <v>96</v>
       </c>
       <c r="I4">
-        <v>-0.7213560289857686</v>
+        <v>-0.4520082938365961</v>
       </c>
       <c r="J4">
-        <v>-0.6124142960125477</v>
+        <v>-0.5064908531406399</v>
       </c>
       <c r="K4">
-        <v>-0.21632253168958757</v>
+        <v>-0.1556556871299301</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -590,13 +590,13 @@
         <v>150</v>
       </c>
       <c r="I5">
-        <v>-6.632925095405936e-6</v>
+        <v>-9.010423476076533e-5</v>
       </c>
       <c r="J5">
-        <v>-1.0110669426771973e-5</v>
+        <v>-5.54553719899231e-5</v>
       </c>
       <c r="K5">
-        <v>2.085548810687359</v>
+        <v>2.2937864464949427</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -625,13 +625,13 @@
         <v>216</v>
       </c>
       <c r="I6">
-        <v>-4.0881714599347467e-7</v>
+        <v>-1.8690844983507462e-7</v>
       </c>
       <c r="J6">
-        <v>-3.716210387684177e-7</v>
+        <v>-1.3348536611492364e-7</v>
       </c>
       <c r="K6">
-        <v>1.2221753223504124</v>
+        <v>0.910278565720972</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -660,13 +660,13 @@
         <v>294</v>
       </c>
       <c r="I7">
-        <v>-3.452671453021652e-8</v>
+        <v>-1.0053182216013113e-7</v>
       </c>
       <c r="J7">
-        <v>-2.66504858816387e-8</v>
+        <v>-6.38769383376825e-8</v>
       </c>
       <c r="K7">
-        <v>0.5827898647546594</v>
+        <v>0.6375340110177047</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -695,13 +695,13 @@
         <v>384</v>
       </c>
       <c r="I8">
-        <v>-3.62079222562057e-8</v>
+        <v>-7.744851153681636e-8</v>
       </c>
       <c r="J8">
-        <v>-2.721725665613256e-8</v>
+        <v>-4.856176559516163e-8</v>
       </c>
       <c r="K8">
-        <v>0.5703574279507456</v>
+        <v>0.5627865245409944</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -730,13 +730,13 @@
         <v>486</v>
       </c>
       <c r="I9">
-        <v>-2.8788629039231133e-8</v>
+        <v>-6.579541402003018e-8</v>
       </c>
       <c r="J9">
-        <v>-2.1546400029413032e-8</v>
+        <v>-4.1112764465578704e-8</v>
       </c>
       <c r="K9">
-        <v>0.5201168549836613</v>
+        <v>0.5238766250285558</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -765,13 +765,13 @@
         <v>600</v>
       </c>
       <c r="I10">
-        <v>-2.99097598438389e-8</v>
+        <v>-5.782541223897116e-8</v>
       </c>
       <c r="J10">
-        <v>-2.224198489534407e-8</v>
+        <v>-3.614974423065291e-8</v>
       </c>
       <c r="K10">
-        <v>0.5221503731132346</v>
+        <v>0.4983210525819475</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -800,13 +800,13 @@
         <v>726</v>
       </c>
       <c r="I11">
-        <v>-2.8110165171278345e-8</v>
+        <v>-5.145922738847439e-8</v>
       </c>
       <c r="J11">
-        <v>-2.084922142051559e-8</v>
+        <v>-3.2214910467859686e-8</v>
       </c>
       <c r="K11">
-        <v>0.5076758738644376</v>
+        <v>0.47708006378798823</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -814,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -835,13 +835,13 @@
         <v>864</v>
       </c>
       <c r="I12">
-        <v>-2.8153099781203687e-8</v>
+        <v>-4.662636984918139e-8</v>
       </c>
       <c r="J12">
-        <v>-2.0827179882987735e-8</v>
+        <v>-2.9235393353599472e-8</v>
       </c>
       <c r="K12">
-        <v>0.505836918580144</v>
+        <v>0.45987902593132873</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -870,13 +870,13 @@
         <v>1014</v>
       </c>
       <c r="I13">
-        <v>-2.7667766850950486e-8</v>
+        <v>-4.287983931830088e-8</v>
       </c>
       <c r="J13">
-        <v>-2.0434554273843764e-8</v>
+        <v>-2.6926682399949735e-8</v>
       </c>
       <c r="K13">
-        <v>0.5010600913820485</v>
+        <v>0.44565660801325735</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -905,13 +905,13 @@
         <v>1176</v>
       </c>
       <c r="I14">
-        <v>-2.7583791088300842e-8</v>
+        <v>-3.976178572534553e-8</v>
       </c>
       <c r="J14">
-        <v>-2.0344907157847106e-8</v>
+        <v>-2.5002998459923387e-8</v>
       </c>
       <c r="K14">
-        <v>0.4993669181286393</v>
+        <v>0.43298470890869917</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -940,13 +940,13 @@
         <v>1350</v>
       </c>
       <c r="I15">
-        <v>-2.740548953213125e-8</v>
+        <v>-3.714379442690966e-8</v>
       </c>
       <c r="J15">
-        <v>-2.019223781563244e-8</v>
+        <v>-2.3386496816280537e-8</v>
       </c>
       <c r="K15">
-        <v>0.4972606455105424</v>
+        <v>0.4217078118545908</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -975,13 +975,13 @@
         <v>1536</v>
       </c>
       <c r="I16">
-        <v>-2.7325597841259243e-8</v>
+        <v>-3.489256540497423e-8</v>
       </c>
       <c r="J16">
-        <v>-2.011527883891447e-8</v>
+        <v>-2.199401776618232e-8</v>
       </c>
       <c r="K16">
-        <v>0.4959708297515753</v>
+        <v>0.4113916401540271</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1010,13 +1010,13 @@
         <v>1734</v>
       </c>
       <c r="I17">
-        <v>-2.7228897969822134e-8</v>
+        <v>-3.29301602073647e-8</v>
       </c>
       <c r="J17">
-        <v>-2.002923348623739e-8</v>
+        <v>-2.077856562581873e-8</v>
       </c>
       <c r="K17">
-        <v>0.4946878735285862</v>
+        <v>0.4019016712871339</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1045,13 +1045,13 @@
         <v>1944</v>
       </c>
       <c r="I18">
-        <v>-2.716784817809712e-8</v>
+        <v>-3.120467520238822e-8</v>
       </c>
       <c r="J18">
-        <v>-1.997180464889511e-8</v>
+        <v>-1.9708651484262344e-8</v>
       </c>
       <c r="K18">
-        <v>0.4937546357377064</v>
+        <v>0.3931380807398694</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1080,13 +1080,13 @@
         <v>2166</v>
       </c>
       <c r="I19">
-        <v>-2.7106750748600865e-8</v>
+        <v>-2.9668292085002137e-8</v>
       </c>
       <c r="J19">
-        <v>-1.9916307070266253e-8</v>
+        <v>-1.875466016763054e-8</v>
       </c>
       <c r="K19">
-        <v>0.49289800482937485</v>
+        <v>0.3849496708946609</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1094,7 +1094,7 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1115,13 +1115,13 @@
         <v>2400</v>
       </c>
       <c r="I20">
-        <v>-2.705739391031705e-8</v>
+        <v>-2.829278498641377e-8</v>
       </c>
       <c r="J20">
-        <v>-1.987084428372046e-8</v>
+        <v>-1.7899511120636498e-8</v>
       </c>
       <c r="K20">
-        <v>0.492180047901246</v>
+        <v>0.3772863000286297</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1150,13 +1150,13 @@
         <v>2646</v>
       </c>
       <c r="I21">
-        <v>-2.7008695804172212e-8</v>
+        <v>-2.705439253732317e-8</v>
       </c>
       <c r="J21">
-        <v>-1.9827099157341265e-8</v>
+        <v>-1.712873137799264e-8</v>
       </c>
       <c r="K21">
-        <v>0.49151411751507407</v>
+        <v>0.3700939688160693</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1185,13 +1185,13 @@
         <v>2904</v>
       </c>
       <c r="I22">
-        <v>-2.6966725521886437e-8</v>
+        <v>-2.5930158437681116e-8</v>
       </c>
       <c r="J22">
-        <v>-1.9789288261384142e-8</v>
+        <v>-1.6428172085043172e-8</v>
       </c>
       <c r="K22">
-        <v>0.4909357333468221</v>
+        <v>0.36329862826666354</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>3174</v>
       </c>
       <c r="I23">
-        <v>-2.6926185385542658e-8</v>
+        <v>-2.4905439276748704e-8</v>
       </c>
       <c r="J23">
-        <v>-1.9753350571619285e-8</v>
+        <v>-1.578897835238101e-8</v>
       </c>
       <c r="K23">
-        <v>0.4903993585155904</v>
+        <v>0.35687227073824795</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1234,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1255,13 +1255,293 @@
         <v>3456</v>
       </c>
       <c r="I24">
-        <v>-2.6888506842920445e-8</v>
+        <v>-2.3966388419614053e-8</v>
       </c>
       <c r="J24">
-        <v>-1.9720167869121685e-8</v>
+        <v>-1.5202594473286866e-8</v>
       </c>
       <c r="K24">
-        <v>0.4899090758568734</v>
+        <v>0.35076836382164067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3750</v>
+      </c>
+      <c r="I25">
+        <v>-2.310168953051572e-8</v>
+      </c>
+      <c r="J25">
+        <v>-1.4662107906951287e-8</v>
+      </c>
+      <c r="K25">
+        <v>0.3449551305854198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>729</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>4056</v>
+      </c>
+      <c r="I26">
+        <v>-2.2303115930969874e-8</v>
+      </c>
+      <c r="J26">
+        <v>-1.4162511671967761e-8</v>
+      </c>
+      <c r="K26">
+        <v>0.3394133473672949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>4374</v>
+      </c>
+      <c r="I27">
+        <v>-2.1562342532963197e-8</v>
+      </c>
+      <c r="J27">
+        <v>-1.3698655439682948e-8</v>
+      </c>
+      <c r="K27">
+        <v>0.33411215548781953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>4704</v>
+      </c>
+      <c r="I28">
+        <v>-2.08732192410536e-8</v>
+      </c>
+      <c r="J28">
+        <v>-1.3266785227689466e-8</v>
+      </c>
+      <c r="K28">
+        <v>0.329035123504349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>900</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>5046</v>
+      </c>
+      <c r="I29">
+        <v>-2.02303620698495e-8</v>
+      </c>
+      <c r="J29">
+        <v>-1.286359681594624e-8</v>
+      </c>
+      <c r="K29">
+        <v>0.3241654737620729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>961</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>5400</v>
+      </c>
+      <c r="I30">
+        <v>-1.9628696920652567e-8</v>
+      </c>
+      <c r="J30">
+        <v>-1.2485953198818113e-8</v>
+      </c>
+      <c r="K30">
+        <v>0.31948398907104764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5766</v>
+      </c>
+      <c r="I31">
+        <v>-1.9064465905422208e-8</v>
+      </c>
+      <c r="J31">
+        <v>-1.2131559614318559e-8</v>
+      </c>
+      <c r="K31">
+        <v>0.31498060086132557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>6144</v>
+      </c>
+      <c r="I32">
+        <v>-1.8533989535974102e-8</v>
+      </c>
+      <c r="J32">
+        <v>-1.1798140442373261e-8</v>
+      </c>
+      <c r="K32">
+        <v>0.31064108177827976</v>
       </c>
     </row>
   </sheetData>
